--- a/Base/Teams/Bills/Players Data.xlsx
+++ b/Base/Teams/Bills/Players Data.xlsx
@@ -475,16 +475,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -495,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -515,16 +515,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -535,10 +535,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -677,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -703,10 +703,10 @@
         <v>8</v>
       </c>
       <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
         <v>6</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -755,19 +755,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -781,13 +781,13 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>11</v>
@@ -807,10 +807,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -819,7 +819,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>8</v>
@@ -833,22 +833,22 @@
         <v>20</v>
       </c>
       <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
         <v>13</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
       </c>
       <c r="F9">
         <v>9</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -911,19 +911,19 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>7</v>

--- a/Base/Teams/Bills/Players Data.xlsx
+++ b/Base/Teams/Bills/Players Data.xlsx
@@ -475,16 +475,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D2">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2">
         <v>23</v>
-      </c>
-      <c r="E2">
-        <v>27</v>
-      </c>
-      <c r="F2">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -495,13 +495,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>44</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>14</v>
@@ -535,13 +535,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -651,10 +651,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -703,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -755,19 +755,19 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>13</v>
@@ -787,10 +787,10 @@
         <v>31</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -807,10 +807,10 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -833,22 +833,22 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -859,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
         <v>6</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -911,22 +911,22 @@
         <v>22</v>
       </c>
       <c r="C12">
+        <v>41</v>
+      </c>
+      <c r="D12">
         <v>33</v>
       </c>
-      <c r="D12">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/Base/Teams/Bills/Players Data.xlsx
+++ b/Base/Teams/Bills/Players Data.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bills/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_CF0408C647A9035D77312F37F5EA4577A1B16A5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21D0948A-6A1B-444C-A5B8-72C27CC6692F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -92,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +162,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -202,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +248,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +300,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,14 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -481,13 +531,13 @@
         <v>27</v>
       </c>
       <c r="E2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -495,19 +545,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,7 +577,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -538,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -547,7 +597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -587,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -601,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -613,14 +663,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -651,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -669,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -695,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -721,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -747,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -755,25 +807,25 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D6">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -781,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
         <v>45</v>
-      </c>
-      <c r="D7">
-        <v>31</v>
       </c>
       <c r="E7">
         <v>27</v>
@@ -799,7 +851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -807,25 +859,25 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -833,25 +885,25 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
         <v>13</v>
       </c>
-      <c r="E9">
-        <v>14</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
-        <v>11</v>
-      </c>
       <c r="H9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -859,11 +911,11 @@
         <v>11</v>
       </c>
       <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
       <c r="E10">
         <v>2</v>
       </c>
@@ -877,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -903,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -911,13 +963,13 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -929,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -937,7 +989,7 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>8</v>

--- a/Base/Teams/Bills/Players Data.xlsx
+++ b/Base/Teams/Bills/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bills/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_CF0408C647A9035D77312F37F5EA4577A1B16A5A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21D0948A-6A1B-444C-A5B8-72C27CC6692F}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_A74C28DC9751C37815702E37F5EA457711B8E414" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18622C36-C612-45FD-B7D1-B0FCF6467881}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,19 +80,19 @@
     <t>S.Diggs</t>
   </si>
   <si>
+    <t>G.Davis</t>
+  </si>
+  <si>
+    <t>J.Kumerow</t>
+  </si>
+  <si>
+    <t>D.Knox</t>
+  </si>
+  <si>
+    <t>T.Sweeney</t>
+  </si>
+  <si>
     <t>C.Beasley</t>
-  </si>
-  <si>
-    <t>G.Davis</t>
-  </si>
-  <si>
-    <t>J.Kumerow</t>
-  </si>
-  <si>
-    <t>D.Knox</t>
-  </si>
-  <si>
-    <t>T.Sweeney</t>
   </si>
 </sst>
 </file>
@@ -525,16 +525,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -545,16 +545,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -565,16 +565,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +667,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -807,16 +807,16 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D6">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>23</v>
@@ -833,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>27</v>
@@ -856,25 +856,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -882,19 +882,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <v>13</v>
@@ -934,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>45</v>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13">
         <v>10</v>

--- a/Base/Teams/Bills/Players Data.xlsx
+++ b/Base/Teams/Bills/Players Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Bills/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_A74C28DC9751C37815702E37F5EA457711B8E414" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18622C36-C612-45FD-B7D1-B0FCF6467881}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -80,6 +74,9 @@
     <t>S.Diggs</t>
   </si>
   <si>
+    <t>C.Beasley</t>
+  </si>
+  <si>
     <t>G.Davis</t>
   </si>
   <si>
@@ -90,16 +87,13 @@
   </si>
   <si>
     <t>T.Sweeney</t>
-  </si>
-  <si>
-    <t>C.Beasley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,14 +156,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -216,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,27 +234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,24 +268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,14 +443,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -525,19 +475,19 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -545,19 +495,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D3">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -565,10 +515,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -577,7 +527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -597,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -617,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -637,7 +587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -648,13 +598,13 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -663,16 +613,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -703,7 +651,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -721,7 +669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -747,7 +695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -773,7 +721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -799,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -807,25 +755,25 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D6">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6">
         <v>11</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -851,44 +799,44 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>19</v>
-      </c>
-      <c r="C9">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
       </c>
       <c r="E9">
         <v>18</v>
@@ -897,13 +845,13 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -911,10 +859,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -923,18 +871,18 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -955,21 +903,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>37</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -981,12 +929,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>10</v>

--- a/Base/Teams/Bills/Players Data.xlsx
+++ b/Base/Teams/Bills/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,9 @@
     <t>I.McKenzie</t>
   </si>
   <si>
+    <t>D.Knox</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t>J.Kumerow</t>
-  </si>
-  <si>
-    <t>D.Knox</t>
   </si>
   <si>
     <t>T.Sweeney</t>
@@ -444,7 +444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,16 +475,16 @@
         <v>5</v>
       </c>
       <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
         <v>33</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <v>36</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -495,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -515,16 +515,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -595,16 +595,36 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>2</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -625,22 +645,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -651,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -663,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -677,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -729,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -752,25 +772,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D6">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -781,16 +801,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -804,13 +824,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D8">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E8">
         <v>10</v>
@@ -830,25 +850,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
         <v>18</v>
       </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>14</v>
-      </c>
       <c r="H9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -859,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -871,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -882,13 +902,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -908,25 +928,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F12">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8">

--- a/Base/Teams/Bills/Players Data.xlsx
+++ b/Base/Teams/Bills/Players Data.xlsx
@@ -475,16 +475,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -495,16 +495,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F3">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -671,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -749,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -775,19 +775,19 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>12</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>16</v>
@@ -801,10 +801,10 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>28</v>
@@ -827,16 +827,16 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D8">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -853,22 +853,22 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -879,10 +879,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -931,10 +931,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>21</v>
